--- a/belize_data/dataset/dataset.xlsx
+++ b/belize_data/dataset/dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newgdrive\My Drive\Econ PhD\Work 2023\Quota baskets\belize_basket\belize_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newgdrive\My Drive\Econ PhD\Work 2023\Quota baskets\belize_basket\belize_data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D79B870-95F4-44B8-B9E7-C00F7836C1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C669F8EC-5C18-4642-A11B-352B1553AA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08DB3185-034C-4C09-8288-62234A8608F2}"/>
+    <workbookView xWindow="1680" yWindow="720" windowWidth="21360" windowHeight="12240" xr2:uid="{08DB3185-034C-4C09-8288-62234A8608F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -885,7 +885,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V40" sqref="V40"/>
+      <selection pane="bottomLeft" activeCell="Q42" sqref="Q42:Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2131,7 +2131,7 @@
         <v>42</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" ref="V18:V19" si="1">$V$16/4</f>
+        <f t="shared" ref="V18" si="1">$V$16/4</f>
         <v>1.7700275007232143E-2</v>
       </c>
       <c r="W18" s="4" t="s">
@@ -3763,7 +3763,7 @@
         <v>1513.2453978180899</v>
       </c>
       <c r="Q42">
-        <v>1513.2453978180899</v>
+        <v>763.07167667943099</v>
       </c>
       <c r="R42" s="9" t="s">
         <v>31</v>
@@ -3824,7 +3824,7 @@
         <v>1465.5129339682301</v>
       </c>
       <c r="Q43">
-        <v>1465.5129339682301</v>
+        <v>710.49412511331002</v>
       </c>
       <c r="R43" s="9" t="s">
         <v>31</v>
